--- a/data/trans_dic/P16A01-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A01-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,64%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>4,44; 10,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>7,68; 14,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>5,28; 12,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>4,31; 11,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>6,19; 12,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,86; 9,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>5,12; 9,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>7,84; 12,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>5,66; 9,99</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,2%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>4,34; 9,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>10,08; 16,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>5,04; 9,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>2,12; 6,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>4,38; 8,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>6,29; 11,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>5,32; 10,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>4,87; 9,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,03; 8,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>8,63; 12,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,89; 9,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,95; 6,99</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,15%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>2,43; 7,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>7,77; 14,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>3,91; 9,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>4,52; 9,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,84; 3,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>7,63; 14,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>4,76; 11,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>6,99; 11,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,01; 4,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>8,54; 13,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,91; 9,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>6,36; 10,16</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,57%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>3,66; 8,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>6,83; 11,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>6,39; 12,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>5,21; 13,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>3,4; 7,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>8,34; 13,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>4,71; 9,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,81; 10,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>4,03; 7,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>8,13; 11,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>5,95; 9,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>5,48; 9,97</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>4,43; 10,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>7,68; 18,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>3,92; 10,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>4,19; 10,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>4,05; 11,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>6,33; 14,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>5,17; 12,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>8,62; 15,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,99; 10,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>7,97; 14,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>5,12; 10,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>7,57; 11,97</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,75%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>3,62; 9,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>11,19; 20,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>4,3; 10,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>5,37; 11,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>3,26; 9,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>7,09; 14,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>6,32; 13,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>5,08; 9,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,05; 8,01</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>9,96; 15,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>6,05; 11,26</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>6,03; 10,1</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,32%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,9; 10,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>6,45; 10,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>6,25; 10,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>7,59; 13,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>4,48; 8,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>4,45; 8,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,81; 9,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,25; 10,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>5,67; 8,69</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>5,84; 8,77</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>6,7; 10,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>6,97; 11,28</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>6,38; 10,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,58; 6,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>5,34; 8,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>3,49; 6,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>6,89; 11,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>4,74; 8,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>7,84; 12,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>4,68; 7,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>7,19; 10,21</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,63; 7,05</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>7,19; 10,19</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,35; 6,6</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,23%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,11; 7,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,38; 10,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,81; 8,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,93; 7,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,65; 7,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,3; 9,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,4; 9,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>6,63; 8,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>6,1; 7,31</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>8,17; 9,64</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,4; 8,78</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>6,58; 7,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A01-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,6%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,26; 17,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 12,31</t>
+          <t>5,14; 12,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,94; 15,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,67</t>
+          <t>4,85; 9,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,52; 14,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,99</t>
+          <t>5,62; 10,11</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,17%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,02</t>
+          <t>2,06; 6,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,29</t>
+          <t>4,92; 9,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,99</t>
+          <t>3,93; 6,98</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>8,1%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 9,85</t>
+          <t>4,46; 9,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,93</t>
+          <t>6,99; 11,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,16</t>
+          <t>6,3; 10,04</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>6,79%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 11,36</t>
+          <t>4,02; 9,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 13,11</t>
+          <t>5,07; 13,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 13,04</t>
+          <t>7,0; 13,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 10,47</t>
+          <t>3,26; 8,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,45</t>
+          <t>6,08; 10,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,97</t>
+          <t>4,42; 9,07</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>9,38%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,25</t>
+          <t>4,3; 10,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,62; 15,78</t>
+          <t>8,58; 15,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,57; 11,97</t>
+          <t>7,54; 11,72</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,74%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,63</t>
+          <t>5,37; 11,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,08; 9,77</t>
+          <t>5,05; 9,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,03; 10,1</t>
+          <t>6,0; 10,14</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>8,7%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,59; 13,53</t>
+          <t>7,6; 13,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,79</t>
+          <t>3,28; 10,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,97; 11,28</t>
+          <t>5,21; 10,98</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>4,77%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,61</t>
+          <t>1,66; 5,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,68; 7,5</t>
+          <t>4,7; 7,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,6</t>
+          <t>2,8; 6,12</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,93; 7,98</t>
+          <t>5,07; 7,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,63; 8,36</t>
+          <t>5,68; 8,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,58; 7,88</t>
+          <t>5,96; 7,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A01-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 10,82</t>
+          <t>4,31; 10,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,26; 17,45</t>
+          <t>8,89; 17,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,68; 14,83</t>
+          <t>7,36; 14,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 12,44</t>
+          <t>4,97; 12,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 11,46</t>
+          <t>4,29; 11,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,94; 15,54</t>
+          <t>7,57; 15,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 12,92</t>
+          <t>5,93; 13,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,67</t>
+          <t>4,84; 9,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,65</t>
+          <t>5,13; 9,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,83</t>
+          <t>9,43; 15,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 12,66</t>
+          <t>7,66; 12,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,11</t>
+          <t>5,61; 9,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 9,28</t>
+          <t>4,38; 8,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,08; 16,57</t>
+          <t>9,93; 16,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,84</t>
+          <t>5,07; 9,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,09</t>
+          <t>2,03; 6,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 8,66</t>
+          <t>4,35; 8,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 11,19</t>
+          <t>6,32; 11,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 10,1</t>
+          <t>5,44; 10,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 9,45</t>
+          <t>4,85; 9,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,16</t>
+          <t>5,01; 8,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,62</t>
+          <t>8,87; 12,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,89; 9,25</t>
+          <t>5,83; 9,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,98</t>
+          <t>3,77; 6,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,54</t>
+          <t>2,54; 7,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 14,91</t>
+          <t>7,67; 14,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,22</t>
+          <t>3,58; 8,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 9,77</t>
+          <t>4,57; 10,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,73</t>
+          <t>0,9; 4,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 14,93</t>
+          <t>7,84; 14,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,2</t>
+          <t>4,95; 11,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,86</t>
+          <t>6,86; 11,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,72</t>
+          <t>2,03; 4,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,54; 13,46</t>
+          <t>8,61; 13,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,0</t>
+          <t>4,91; 9,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 10,04</t>
+          <t>6,4; 10,13</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,65</t>
+          <t>3,77; 8,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 9,7</t>
+          <t>3,99; 9,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 12,46</t>
+          <t>6,09; 12,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 13,01</t>
+          <t>5,02; 13,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,85</t>
+          <t>3,44; 8,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 13,27</t>
+          <t>7,17; 13,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 9,83</t>
+          <t>4,51; 9,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,87</t>
+          <t>3,42; 8,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,33</t>
+          <t>4,15; 7,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,08; 10,49</t>
+          <t>5,97; 10,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 9,81</t>
+          <t>6,17; 9,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,07</t>
+          <t>4,45; 9,43</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 10,87</t>
+          <t>4,38; 11,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,68; 18,32</t>
+          <t>8,06; 17,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,92; 10,99</t>
+          <t>3,58; 10,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 10,34</t>
+          <t>4,47; 10,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 11,52</t>
+          <t>4,11; 11,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 14,4</t>
+          <t>6,17; 14,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 12,33</t>
+          <t>4,96; 11,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,58; 15,3</t>
+          <t>8,65; 15,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 10,0</t>
+          <t>5,05; 9,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,97; 14,17</t>
+          <t>7,87; 14,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 10,04</t>
+          <t>5,24; 9,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,54; 11,72</t>
+          <t>7,36; 11,9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,47</t>
+          <t>3,85; 9,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,19; 20,14</t>
+          <t>11,05; 20,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,3; 10,81</t>
+          <t>4,23; 11,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,68</t>
+          <t>5,28; 11,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,16</t>
+          <t>3,24; 9,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,09; 14,39</t>
+          <t>7,18; 14,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,32; 13,22</t>
+          <t>5,99; 12,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,05; 9,73</t>
+          <t>5,06; 10,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,05; 8,01</t>
+          <t>4,14; 8,01</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,96; 15,63</t>
+          <t>9,85; 15,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,05; 11,26</t>
+          <t>5,91; 10,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,0; 10,14</t>
+          <t>6,0; 9,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,9; 10,28</t>
+          <t>6,05; 10,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,94</t>
+          <t>6,5; 11,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,9</t>
+          <t>6,33; 10,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,6; 13,9</t>
+          <t>7,89; 14,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,31</t>
+          <t>4,6; 8,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,34</t>
+          <t>4,6; 8,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,93</t>
+          <t>5,79; 9,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,28; 10,36</t>
+          <t>3,57; 10,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,69</t>
+          <t>5,56; 8,47</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,84; 8,77</t>
+          <t>5,81; 8,91</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,03</t>
+          <t>6,57; 9,81</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,98</t>
+          <t>5,28; 10,98</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,23</t>
+          <t>6,63; 10,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,99</t>
+          <t>3,5; 7,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,34; 8,93</t>
+          <t>5,25; 8,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,82</t>
+          <t>1,84; 5,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,19</t>
+          <t>6,99; 11,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,12</t>
+          <t>4,72; 8,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,84; 12,5</t>
+          <t>7,79; 12,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,7; 7,52</t>
+          <t>4,71; 7,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,19; 10,21</t>
+          <t>7,21; 10,0</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,05</t>
+          <t>4,56; 6,99</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,19; 10,19</t>
+          <t>7,05; 10,0</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,12</t>
+          <t>2,98; 6,08</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,11; 7,9</t>
+          <t>6,01; 7,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,38; 10,51</t>
+          <t>8,47; 10,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,81; 8,67</t>
+          <t>6,79; 8,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,73</t>
+          <t>5,06; 7,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,65; 7,33</t>
+          <t>5,54; 7,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,3; 9,31</t>
+          <t>7,48; 9,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,4; 9,33</t>
+          <t>7,37; 9,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,01</t>
+          <t>5,79; 8,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,1; 7,31</t>
+          <t>6,09; 7,37</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>8,17; 9,64</t>
+          <t>8,16; 9,58</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7,4; 8,78</t>
+          <t>7,32; 8,66</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,96; 7,62</t>
+          <t>6,02; 7,73</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19492</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>36312</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32008</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25768</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19200</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32069</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25495</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19943</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>38692</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>68381</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>57504</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>45711</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11768; 29799</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25813; 50540</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21622; 43916</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15480; 39613</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11197; 29175</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21211; 44536</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17113; 38206</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14023; 27444</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>27410; 53041</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>53800; 86086</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>44592; 73802</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33698; 59990</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31675</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>64980</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>36642</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18907</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31260</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>44311</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39663</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34343</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>62935</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>109292</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>76305</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>53250</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21611; 43795</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>50191; 82039</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25475; 48913</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10502; 32125</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>21899; 44925</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>33030; 58679</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28440; 53517</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24860; 48465</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>49990; 81961</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>91169; 129563</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>59793; 93091</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>38860; 70749</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14156</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>35384</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18962</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>21494</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6708</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>36171</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32404</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20864</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>71556</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>44961</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>53898</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8109; 23030</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24794; 47823</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11408; 28404</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14449; 31927</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3020; 13901</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26738; 50115</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16643; 37826</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23937; 41750</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13310; 32095</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>57213; 90059</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>32176; 59825</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>42544; 67386</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20777</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>23386</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>32488</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>26115</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19790</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>37667</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26757</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>27420</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>40567</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>61052</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>59245</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>53535</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13533; 30627</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14938; 33954</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22522; 44550</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15680; 41630</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12788; 29759</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27821; 51381</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17476; 38207</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16277; 41762</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>30314; 54843</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>45523; 77273</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>46759; 75494</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>35056; 74316</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>14512</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>25971</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13984</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12660</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14739</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>21736</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17457</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23686</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29251</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>47707</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>31440</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>36346</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8896; 22587</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17132; 37758</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7566; 21824</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7993; 18985</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8534; 23928</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13549; 32071</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10850; 25837</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18052; 31803</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>20760; 41051</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>34036; 62447</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>22519; 42408</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>28505; 46119</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>16609</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>40811</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>18423</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>22118</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>15802</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>28811</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>25020</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>18668</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>32411</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>69622</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>43443</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>40787</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10430; 25879</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>30280; 55152</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>11126; 28998</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>14228; 31819</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>9025; 25136</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>20049; 39692</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>16346; 35196</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>13015; 25928</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>22719; 43995</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>54466; 86662</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>31667; 57682</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>31589; 52478</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>47946</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>56795</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>54364</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>65695</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>39496</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>42302</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>53522</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>62465</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>87442</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>99097</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>107886</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>128160</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>37194; 63906</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>43054; 74583</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>41568; 71348</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>49230; 88313</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>29342; 53572</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>31905; 56604</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>40016; 68083</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>30331; 87883</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>69683; 106125</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>78884; 120941</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>88614; 132174</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>77824; 161854</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>61552</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>39347</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>54262</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>35873</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>70088</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>51891</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>81365</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>42563</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>131640</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>91239</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>135627</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>78436</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>49227; 77471</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>27181; 54729</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>40880; 68788</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>17128; 53551</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>54735; 87110</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>38685; 66832</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>64348; 100813</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>33654; 54787</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>110117; 152616</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>72894; 111682</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>113098; 160419</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>48904; 99972</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>226720</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>322987</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>261133</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>228631</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>217084</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>294958</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>295278</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>261492</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>443804</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>617945</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>556411</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>490123</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>196981; 255794</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>289602; 364737</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>230616; 296394</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>174870; 265333</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>187296; 248215</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>265277; 330185</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>261087; 328950</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>211773; 296798</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>405507; 490355</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>568021; 667252</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>508103; 600878</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>428685; 549704</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>